--- a/firered-nettux-new-mons.xlsx
+++ b/firered-nettux-new-mons.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lewis\pokefirered-expansion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304425AF-008E-41D7-BBC6-CCBD03209E2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F37B85-07E2-40E4-B65A-4F7DC5C3B5EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{4D0F1F34-F3E4-433F-B9BC-51AD106AAB02}"/>
+    <workbookView xWindow="1065" yWindow="3885" windowWidth="26655" windowHeight="11385" xr2:uid="{4D0F1F34-F3E4-433F-B9BC-51AD106AAB02}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="239">
   <si>
     <t>Sandshrew</t>
   </si>
@@ -449,9 +449,6 @@
     <t>Shellos</t>
   </si>
   <si>
-    <t>Drillbur</t>
-  </si>
-  <si>
     <t>Mudbray</t>
   </si>
   <si>
@@ -536,9 +533,6 @@
     <t>Tinkatuff</t>
   </si>
   <si>
-    <t>Beldon</t>
-  </si>
-  <si>
     <t>Metang</t>
   </si>
   <si>
@@ -704,10 +698,61 @@
     <t>Route 3</t>
   </si>
   <si>
-    <t>Viridian Forest, Route 3</t>
-  </si>
-  <si>
     <t>Route 2, Route 22, Route 3</t>
+  </si>
+  <si>
+    <t>MtMoon_1F</t>
+  </si>
+  <si>
+    <t>Beldum</t>
+  </si>
+  <si>
+    <t>Viridian Forest, Route 3, MtMoon_1F</t>
+  </si>
+  <si>
+    <t>MtMoon_1F, MtMoon_B1F</t>
+  </si>
+  <si>
+    <t>MtMoon_B1F</t>
+  </si>
+  <si>
+    <t>Route 2, MtMoon_B1F</t>
+  </si>
+  <si>
+    <t>MtMoon_B2F</t>
+  </si>
+  <si>
+    <t>MtMoon_B1F, MtMoon_B2F</t>
+  </si>
+  <si>
+    <t>Route 3, MtMoon_B2F</t>
+  </si>
+  <si>
+    <t>Route 1, MtMoon_B1F</t>
+  </si>
+  <si>
+    <t>Drilbur</t>
+  </si>
+  <si>
+    <t>Route 4</t>
+  </si>
+  <si>
+    <t>Route 1, Route 2, Route 4</t>
+  </si>
+  <si>
+    <t>Route 24</t>
+  </si>
+  <si>
+    <t>Electrike</t>
+  </si>
+  <si>
+    <t>Manectric</t>
+  </si>
+  <si>
+    <t>Route 25</t>
+  </si>
+  <si>
+    <t>Route 24, Route 25</t>
   </si>
 </sst>
 </file>
@@ -1088,10 +1133,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D266181C-CB66-47C1-88A5-38F785E7523D}">
-  <dimension ref="A1:B212"/>
+  <dimension ref="A1:B214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="G185" sqref="G185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1127,6 +1172,9 @@
       <c r="A5" t="s">
         <v>3</v>
       </c>
+      <c r="B5" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1220,21 +1268,24 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B24" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>123</v>
       </c>
+      <c r="B26" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -1246,7 +1297,7 @@
         <v>124</v>
       </c>
       <c r="B28" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1259,7 +1310,7 @@
         <v>125</v>
       </c>
       <c r="B30" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -1272,7 +1323,7 @@
         <v>128</v>
       </c>
       <c r="B32" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1285,7 +1336,7 @@
         <v>127</v>
       </c>
       <c r="B34" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -1308,7 +1359,7 @@
         <v>101</v>
       </c>
       <c r="B38" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -1321,7 +1372,7 @@
         <v>102</v>
       </c>
       <c r="B40" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -1334,7 +1385,7 @@
         <v>103</v>
       </c>
       <c r="B42" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1357,13 +1408,16 @@
         <v>105</v>
       </c>
       <c r="B46" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>106</v>
       </c>
+      <c r="B47" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
@@ -1384,6 +1438,9 @@
       <c r="A51" t="s">
         <v>109</v>
       </c>
+      <c r="B51" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
@@ -1400,13 +1457,16 @@
         <v>111</v>
       </c>
       <c r="B54" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>110</v>
       </c>
+      <c r="B55" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
@@ -1418,7 +1478,7 @@
         <v>112</v>
       </c>
       <c r="B57" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -1431,13 +1491,16 @@
         <v>113</v>
       </c>
       <c r="B59" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>114</v>
       </c>
+      <c r="B60" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
@@ -1449,13 +1512,16 @@
         <v>116</v>
       </c>
       <c r="B62" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>115</v>
       </c>
+      <c r="B63" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
@@ -1466,18 +1532,24 @@
       <c r="A65" t="s">
         <v>117</v>
       </c>
+      <c r="B65" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>38</v>
       </c>
+      <c r="B66" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>131</v>
       </c>
       <c r="B67" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -1490,7 +1562,7 @@
         <v>132</v>
       </c>
       <c r="B69" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -1503,7 +1575,7 @@
         <v>133</v>
       </c>
       <c r="B71" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -1520,6 +1592,9 @@
       <c r="A74" t="s">
         <v>134</v>
       </c>
+      <c r="B74" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
@@ -1543,7 +1618,10 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>137</v>
+        <v>231</v>
+      </c>
+      <c r="B79" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -1553,7 +1631,10 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>138</v>
+        <v>137</v>
+      </c>
+      <c r="B81" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -1563,7 +1644,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -1573,25 +1654,25 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B88" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -1603,15 +1684,21 @@
       <c r="A90" t="s">
         <v>47</v>
       </c>
+      <c r="B90" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>145</v>
+        <v>144</v>
+      </c>
+      <c r="B92" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -1621,12 +1708,15 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>146</v>
+        <v>145</v>
+      </c>
+      <c r="B94" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -1636,10 +1726,10 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B97" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -1649,7 +1739,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -1659,7 +1749,10 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>150</v>
+        <v>149</v>
+      </c>
+      <c r="B101" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -1674,7 +1767,10 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>151</v>
+        <v>150</v>
+      </c>
+      <c r="B104" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -1684,12 +1780,12 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -1697,15 +1793,15 @@
         <v>54</v>
       </c>
       <c r="B108" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B109" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -1715,12 +1811,12 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -1730,10 +1826,10 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B114" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -1745,15 +1841,21 @@
       <c r="A116" t="s">
         <v>58</v>
       </c>
+      <c r="B116" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>158</v>
+        <v>157</v>
+      </c>
+      <c r="B117" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -1763,12 +1865,12 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -1778,12 +1880,15 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>162</v>
+        <v>161</v>
+      </c>
+      <c r="B123" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -1793,15 +1898,15 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B126" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -1811,12 +1916,15 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>166</v>
+        <v>222</v>
+      </c>
+      <c r="B129" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -1826,12 +1934,15 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>168</v>
+        <v>166</v>
+      </c>
+      <c r="B132" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -1841,7 +1952,10 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>170</v>
+        <v>168</v>
+      </c>
+      <c r="B135" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -1856,10 +1970,10 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B138" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -1874,7 +1988,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -1884,15 +1998,15 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B143" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -1902,10 +2016,10 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B146" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -1920,7 +2034,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -1930,12 +2044,12 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -1945,10 +2059,10 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B154" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -1958,10 +2072,10 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B156" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -1971,15 +2085,18 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B158" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>181</v>
+        <v>179</v>
+      </c>
+      <c r="B159" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -1989,7 +2106,10 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="B161" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -1999,12 +2119,15 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>183</v>
+        <v>181</v>
+      </c>
+      <c r="B163" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -2019,7 +2142,10 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>185</v>
+        <v>183</v>
+      </c>
+      <c r="B167" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
@@ -2029,12 +2155,18 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>187</v>
+        <v>185</v>
+      </c>
+      <c r="B169" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>186</v>
+        <v>184</v>
+      </c>
+      <c r="B170" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -2044,7 +2176,10 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>188</v>
+        <v>186</v>
+      </c>
+      <c r="B172" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -2054,15 +2189,15 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B174" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
@@ -2077,7 +2212,10 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>191</v>
+        <v>189</v>
+      </c>
+      <c r="B178" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -2087,7 +2225,10 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>192</v>
+        <v>190</v>
+      </c>
+      <c r="B180" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -2097,12 +2238,15 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>193</v>
+        <v>191</v>
+      </c>
+      <c r="B182" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
@@ -2112,10 +2256,10 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B185" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
@@ -2125,12 +2269,15 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>196</v>
+        <v>194</v>
+      </c>
+      <c r="B187" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -2150,95 +2297,98 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+      <c r="B203" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B209" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
@@ -2248,15 +2398,28 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B211" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>100</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>235</v>
+      </c>
+      <c r="B213" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/firered-nettux-new-mons.xlsx
+++ b/firered-nettux-new-mons.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lewis\pokefirered-expansion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F37B85-07E2-40E4-B65A-4F7DC5C3B5EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E220EC-A2EE-4BBB-949F-1F33A3D15A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1065" yWindow="3885" windowWidth="26655" windowHeight="11385" xr2:uid="{4D0F1F34-F3E4-433F-B9BC-51AD106AAB02}"/>
+    <workbookView xWindow="645" yWindow="1635" windowWidth="26655" windowHeight="11385" xr2:uid="{4D0F1F34-F3E4-433F-B9BC-51AD106AAB02}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="266">
   <si>
     <t>Sandshrew</t>
   </si>
@@ -725,9 +725,6 @@
     <t>MtMoon_B1F, MtMoon_B2F</t>
   </si>
   <si>
-    <t>Route 3, MtMoon_B2F</t>
-  </si>
-  <si>
     <t>Route 1, MtMoon_B1F</t>
   </si>
   <si>
@@ -753,6 +750,90 @@
   </si>
   <si>
     <t>Route 24, Route 25</t>
+  </si>
+  <si>
+    <t>Wingull</t>
+  </si>
+  <si>
+    <t>Pelipper</t>
+  </si>
+  <si>
+    <t>Rotom</t>
+  </si>
+  <si>
+    <t>Geodude Alola</t>
+  </si>
+  <si>
+    <t>Graveler Alola</t>
+  </si>
+  <si>
+    <t>Golem Alola</t>
+  </si>
+  <si>
+    <t>All Starters</t>
+  </si>
+  <si>
+    <t>Miltank</t>
+  </si>
+  <si>
+    <t>Stantler</t>
+  </si>
+  <si>
+    <t>Chinchou</t>
+  </si>
+  <si>
+    <t>Lantern</t>
+  </si>
+  <si>
+    <t>Route 5</t>
+  </si>
+  <si>
+    <t>Route 4, Route 5</t>
+  </si>
+  <si>
+    <t>Route 24,Route 5</t>
+  </si>
+  <si>
+    <t>Route 3, MtMoon_B2F, Route 6</t>
+  </si>
+  <si>
+    <t>Route 5, Route 6</t>
+  </si>
+  <si>
+    <t>Route 2, Route 6</t>
+  </si>
+  <si>
+    <t>Route 6</t>
+  </si>
+  <si>
+    <t>Route 3, Route 6</t>
+  </si>
+  <si>
+    <t>Route 4, Route 6</t>
+  </si>
+  <si>
+    <t>Route 6, Route 11</t>
+  </si>
+  <si>
+    <t>Route 11</t>
+  </si>
+  <si>
+    <t>Route 4, Route 11</t>
+  </si>
+  <si>
+    <t>Route 4, Route 5, Route 11</t>
+  </si>
+  <si>
+    <t>DiglettsCave_B1F</t>
+  </si>
+  <si>
+    <t>MtMoon_1F, DiglettsCave_B1F</t>
+  </si>
+  <si>
+    <t>MtMoon_B2F,DiglettsCave_B1F</t>
+  </si>
+  <si>
+    <t>Route 11, DiglettsCave_B1F</t>
   </si>
 </sst>
 </file>
@@ -1133,16 +1214,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D266181C-CB66-47C1-88A5-38F785E7523D}">
-  <dimension ref="A1:B214"/>
+  <dimension ref="A1:B226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="G185" sqref="G185"/>
+    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
+      <selection activeCell="G222" sqref="G222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1173,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1271,7 +1352,7 @@
         <v>208</v>
       </c>
       <c r="B24" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1310,7 +1391,7 @@
         <v>125</v>
       </c>
       <c r="B30" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -1323,7 +1404,7 @@
         <v>128</v>
       </c>
       <c r="B32" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1416,7 +1497,7 @@
         <v>106</v>
       </c>
       <c r="B47" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -1439,7 +1520,7 @@
         <v>109</v>
       </c>
       <c r="B51" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -1465,7 +1546,7 @@
         <v>110</v>
       </c>
       <c r="B55" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -1485,6 +1566,9 @@
       <c r="A58" t="s">
         <v>35</v>
       </c>
+      <c r="B58" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
@@ -1499,7 +1583,7 @@
         <v>114</v>
       </c>
       <c r="B60" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -1520,7 +1604,7 @@
         <v>115</v>
       </c>
       <c r="B63" t="s">
-        <v>232</v>
+        <v>260</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -1569,6 +1653,9 @@
       <c r="A70" t="s">
         <v>40</v>
       </c>
+      <c r="B70" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
@@ -1600,6 +1687,9 @@
       <c r="A75" t="s">
         <v>135</v>
       </c>
+      <c r="B75" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
@@ -1618,10 +1708,10 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B79" t="s">
-        <v>227</v>
+        <v>264</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -1634,7 +1724,7 @@
         <v>137</v>
       </c>
       <c r="B81" t="s">
-        <v>232</v>
+        <v>261</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -1646,6 +1736,9 @@
       <c r="A83" t="s">
         <v>138</v>
       </c>
+      <c r="B83" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
@@ -1656,6 +1749,9 @@
       <c r="A85" t="s">
         <v>139</v>
       </c>
+      <c r="B85" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
@@ -1672,7 +1768,7 @@
         <v>142</v>
       </c>
       <c r="B88" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -1705,6 +1801,9 @@
       <c r="A93" t="s">
         <v>48</v>
       </c>
+      <c r="B93" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
@@ -1736,6 +1835,9 @@
       <c r="A98" t="s">
         <v>50</v>
       </c>
+      <c r="B98" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
@@ -1808,6 +1910,9 @@
       <c r="A110" t="s">
         <v>55</v>
       </c>
+      <c r="B110" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
@@ -1867,6 +1972,9 @@
       <c r="A120" t="s">
         <v>159</v>
       </c>
+      <c r="B120" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
@@ -1955,7 +2063,7 @@
         <v>168</v>
       </c>
       <c r="B135" t="s">
-        <v>221</v>
+        <v>263</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -1973,7 +2081,7 @@
         <v>214</v>
       </c>
       <c r="B138" t="s">
-        <v>215</v>
+        <v>254</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -1985,11 +2093,17 @@
       <c r="A140" t="s">
         <v>68</v>
       </c>
+      <c r="B140" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>169</v>
       </c>
+      <c r="B141" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
@@ -2008,6 +2122,9 @@
       <c r="A144" t="s">
         <v>171</v>
       </c>
+      <c r="B144" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
@@ -2062,7 +2179,7 @@
         <v>176</v>
       </c>
       <c r="B154" t="s">
-        <v>219</v>
+        <v>256</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -2082,6 +2199,9 @@
       <c r="A157" t="s">
         <v>76</v>
       </c>
+      <c r="B157" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
@@ -2096,7 +2216,7 @@
         <v>179</v>
       </c>
       <c r="B159" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -2109,7 +2229,7 @@
         <v>180</v>
       </c>
       <c r="B161" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -2122,7 +2242,7 @@
         <v>181</v>
       </c>
       <c r="B163" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
@@ -2145,7 +2265,7 @@
         <v>183</v>
       </c>
       <c r="B167" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
@@ -2166,7 +2286,7 @@
         <v>184</v>
       </c>
       <c r="B170" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -2179,7 +2299,7 @@
         <v>186</v>
       </c>
       <c r="B172" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -2199,6 +2319,9 @@
       <c r="A175" t="s">
         <v>188</v>
       </c>
+      <c r="B175" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
@@ -2209,6 +2332,9 @@
       <c r="A177" t="s">
         <v>85</v>
       </c>
+      <c r="B177" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
@@ -2228,7 +2354,7 @@
         <v>190</v>
       </c>
       <c r="B180" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -2241,7 +2367,7 @@
         <v>191</v>
       </c>
       <c r="B182" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
@@ -2272,7 +2398,7 @@
         <v>194</v>
       </c>
       <c r="B187" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
@@ -2299,6 +2425,9 @@
       <c r="A192" t="s">
         <v>196</v>
       </c>
+      <c r="B192" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
@@ -2395,6 +2524,9 @@
       <c r="A210" t="s">
         <v>99</v>
       </c>
+      <c r="B210" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
@@ -2408,18 +2540,88 @@
       <c r="A212" t="s">
         <v>100</v>
       </c>
+      <c r="B212" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B213" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>238</v>
+      </c>
+      <c r="B215" t="s">
         <v>236</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>241</v>
+      </c>
+      <c r="B218" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>242</v>
+      </c>
+      <c r="B219" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>245</v>
+      </c>
+      <c r="B221" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>

--- a/firered-nettux-new-mons.xlsx
+++ b/firered-nettux-new-mons.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lewis\pokefirered-expansion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E220EC-A2EE-4BBB-949F-1F33A3D15A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A97548F-378D-4190-A3DA-6E4EC0931FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="645" yWindow="1635" windowWidth="26655" windowHeight="11385" xr2:uid="{4D0F1F34-F3E4-433F-B9BC-51AD106AAB02}"/>
+    <workbookView xWindow="5400" yWindow="2235" windowWidth="10485" windowHeight="11385" xr2:uid="{4D0F1F34-F3E4-433F-B9BC-51AD106AAB02}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="349">
   <si>
     <t>Sandshrew</t>
   </si>
@@ -458,9 +458,6 @@
     <t>Larvitar</t>
   </si>
   <si>
-    <t>Puppitar</t>
-  </si>
-  <si>
     <t>Tyranitar</t>
   </si>
   <si>
@@ -770,9 +767,6 @@
     <t>Golem Alola</t>
   </si>
   <si>
-    <t>All Starters</t>
-  </si>
-  <si>
     <t>Miltank</t>
   </si>
   <si>
@@ -794,27 +788,15 @@
     <t>Route 24,Route 5</t>
   </si>
   <si>
-    <t>Route 3, MtMoon_B2F, Route 6</t>
-  </si>
-  <si>
     <t>Route 5, Route 6</t>
   </si>
   <si>
     <t>Route 2, Route 6</t>
   </si>
   <si>
-    <t>Route 6</t>
-  </si>
-  <si>
-    <t>Route 3, Route 6</t>
-  </si>
-  <si>
     <t>Route 4, Route 6</t>
   </si>
   <si>
-    <t>Route 6, Route 11</t>
-  </si>
-  <si>
     <t>Route 11</t>
   </si>
   <si>
@@ -834,6 +816,273 @@
   </si>
   <si>
     <t>Route 11, DiglettsCave_B1F</t>
+  </si>
+  <si>
+    <t>Route 9</t>
+  </si>
+  <si>
+    <t>Route 3, Route 6, Route 10</t>
+  </si>
+  <si>
+    <t>Route 10</t>
+  </si>
+  <si>
+    <t>Route 6, Route 10</t>
+  </si>
+  <si>
+    <t>RockTunnel1F</t>
+  </si>
+  <si>
+    <t>DiglettsCave_B1F, RockTunnel1F, RockTunnelB1F</t>
+  </si>
+  <si>
+    <t>RockTunnel1F, RockTunnelB1F</t>
+  </si>
+  <si>
+    <t>Route 8</t>
+  </si>
+  <si>
+    <t>Route 4, Route 8</t>
+  </si>
+  <si>
+    <t>Route 3, MtMoon_B2F, Route 6, Route 7</t>
+  </si>
+  <si>
+    <t>Route 7</t>
+  </si>
+  <si>
+    <t>Route 11, Route 7</t>
+  </si>
+  <si>
+    <t>Route 9, Route 10, Route 16</t>
+  </si>
+  <si>
+    <t>Route 16</t>
+  </si>
+  <si>
+    <t>DiglettsCave_B1F, Route 16</t>
+  </si>
+  <si>
+    <t>Route 9, Route 16</t>
+  </si>
+  <si>
+    <t>MtMoon_B1F, Route 16</t>
+  </si>
+  <si>
+    <t>PokemonTower</t>
+  </si>
+  <si>
+    <t>MtMoon_1F, PokemonTower</t>
+  </si>
+  <si>
+    <t>Route 9, PokemonTower</t>
+  </si>
+  <si>
+    <t>Sableye</t>
+  </si>
+  <si>
+    <t>Duskull</t>
+  </si>
+  <si>
+    <t>Dusclops</t>
+  </si>
+  <si>
+    <t>Dusknoir</t>
+  </si>
+  <si>
+    <t>Route 12</t>
+  </si>
+  <si>
+    <t>Route 6, Route 12</t>
+  </si>
+  <si>
+    <t>Route 5, Route 13</t>
+  </si>
+  <si>
+    <t>Route 5, Route 12, Route 13</t>
+  </si>
+  <si>
+    <t>Skarmory</t>
+  </si>
+  <si>
+    <t>Route 13</t>
+  </si>
+  <si>
+    <t>Route 5, Route 9, Route 13</t>
+  </si>
+  <si>
+    <t>Route 12, Route 13</t>
+  </si>
+  <si>
+    <t>Route 16, Route 14</t>
+  </si>
+  <si>
+    <t>Route 13, Route 14</t>
+  </si>
+  <si>
+    <t>Route 8, Route 14</t>
+  </si>
+  <si>
+    <t>Route 14</t>
+  </si>
+  <si>
+    <t>Route 9, Route 10, Route 14</t>
+  </si>
+  <si>
+    <t>Route 6, Route 11, Route 14</t>
+  </si>
+  <si>
+    <t>Route 15</t>
+  </si>
+  <si>
+    <t>MtMoon_1F, Route 15</t>
+  </si>
+  <si>
+    <t>Route 4, Route 15</t>
+  </si>
+  <si>
+    <t>Route 11, Route 15</t>
+  </si>
+  <si>
+    <t>Route 9, Route 18</t>
+  </si>
+  <si>
+    <t>Route 18</t>
+  </si>
+  <si>
+    <t>Route 16, Route 12, Route 18</t>
+  </si>
+  <si>
+    <t>Route 14, Route 18</t>
+  </si>
+  <si>
+    <t>PokemonTower, Route 18</t>
+  </si>
+  <si>
+    <t>Route 7, Route 18</t>
+  </si>
+  <si>
+    <t>Route 16, Route 17</t>
+  </si>
+  <si>
+    <t>Route 10, Route 17</t>
+  </si>
+  <si>
+    <t>Route 15, Route 17</t>
+  </si>
+  <si>
+    <t>Route 17</t>
+  </si>
+  <si>
+    <t>Pupitar</t>
+  </si>
+  <si>
+    <t>DiglettsCave_B1F, Route 17</t>
+  </si>
+  <si>
+    <t>Route 8, Route 17</t>
+  </si>
+  <si>
+    <t>Bulbasaur</t>
+  </si>
+  <si>
+    <t>Squirtle</t>
+  </si>
+  <si>
+    <t>Charmander</t>
+  </si>
+  <si>
+    <t>Safari</t>
+  </si>
+  <si>
+    <t>Chikorita</t>
+  </si>
+  <si>
+    <t>Totodile</t>
+  </si>
+  <si>
+    <t>Cyndaquil</t>
+  </si>
+  <si>
+    <t>Viridian City</t>
+  </si>
+  <si>
+    <t>Pewter City</t>
+  </si>
+  <si>
+    <t>Cerulean City</t>
+  </si>
+  <si>
+    <t>Vermilion City</t>
+  </si>
+  <si>
+    <t>Treecko</t>
+  </si>
+  <si>
+    <t>Torchic</t>
+  </si>
+  <si>
+    <t>Mudkip</t>
+  </si>
+  <si>
+    <t>Turtwig</t>
+  </si>
+  <si>
+    <t>Chimchar</t>
+  </si>
+  <si>
+    <t>Piplup</t>
+  </si>
+  <si>
+    <t>Snivy</t>
+  </si>
+  <si>
+    <t>Tepig</t>
+  </si>
+  <si>
+    <t>Oshawott</t>
+  </si>
+  <si>
+    <t>Chespin</t>
+  </si>
+  <si>
+    <t>Fennekin</t>
+  </si>
+  <si>
+    <t>Froakie</t>
+  </si>
+  <si>
+    <t>Rowlet</t>
+  </si>
+  <si>
+    <t>Litten</t>
+  </si>
+  <si>
+    <t>Popplio</t>
+  </si>
+  <si>
+    <t>Grookey</t>
+  </si>
+  <si>
+    <t>Scorbunny</t>
+  </si>
+  <si>
+    <t>Sobble</t>
+  </si>
+  <si>
+    <t>Sprigatito</t>
+  </si>
+  <si>
+    <t>Fuecoco</t>
+  </si>
+  <si>
+    <t>Quaxly</t>
+  </si>
+  <si>
+    <t>Weezing Galar</t>
+  </si>
+  <si>
+    <t>Toedscruel</t>
   </si>
 </sst>
 </file>
@@ -857,12 +1106,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -877,9 +1144,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1214,10 +1484,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D266181C-CB66-47C1-88A5-38F785E7523D}">
-  <dimension ref="A1:B226"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:C259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
-      <selection activeCell="G222" sqref="G222"/>
+    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
+      <selection activeCell="C256" sqref="C256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1254,13 +1525,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
+      <c r="B6" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1306,6 +1580,9 @@
       <c r="A15" t="s">
         <v>13</v>
       </c>
+      <c r="B15" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1316,6 +1593,9 @@
       <c r="A17" t="s">
         <v>15</v>
       </c>
+      <c r="B17" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -1349,15 +1629,18 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="B25" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -1365,7 +1648,7 @@
         <v>123</v>
       </c>
       <c r="B26" t="s">
-        <v>225</v>
+        <v>276</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1378,52 +1661,64 @@
         <v>124</v>
       </c>
       <c r="B28" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>23</v>
       </c>
+      <c r="B29" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>125</v>
       </c>
       <c r="B30" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>24</v>
       </c>
+      <c r="B31" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>128</v>
       </c>
       <c r="B32" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>25</v>
       </c>
+      <c r="B33" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>127</v>
       </c>
       <c r="B34" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>26</v>
       </c>
+      <c r="B35" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -1434,39 +1729,48 @@
       <c r="A37" t="s">
         <v>27</v>
       </c>
+      <c r="B37" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>101</v>
       </c>
       <c r="B38" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>28</v>
       </c>
+      <c r="B39" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>102</v>
       </c>
       <c r="B40" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>29</v>
       </c>
+      <c r="B41" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>103</v>
       </c>
       <c r="B42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1483,13 +1787,16 @@
       <c r="A45" t="s">
         <v>30</v>
       </c>
+      <c r="B45" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>105</v>
       </c>
       <c r="B46" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -1497,7 +1804,7 @@
         <v>106</v>
       </c>
       <c r="B47" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -1514,19 +1821,25 @@
       <c r="A50" t="s">
         <v>32</v>
       </c>
+      <c r="B50" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>109</v>
       </c>
       <c r="B51" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>108</v>
       </c>
+      <c r="B52" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
@@ -1538,7 +1851,7 @@
         <v>111</v>
       </c>
       <c r="B54" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -1546,20 +1859,23 @@
         <v>110</v>
       </c>
       <c r="B55" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>34</v>
       </c>
+      <c r="B56" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>112</v>
       </c>
       <c r="B57" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -1567,7 +1883,7 @@
         <v>35</v>
       </c>
       <c r="B58" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -1575,7 +1891,7 @@
         <v>113</v>
       </c>
       <c r="B59" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -1583,20 +1899,23 @@
         <v>114</v>
       </c>
       <c r="B60" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>36</v>
       </c>
+      <c r="B61" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>116</v>
       </c>
       <c r="B62" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -1604,20 +1923,23 @@
         <v>115</v>
       </c>
       <c r="B63" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>37</v>
       </c>
+      <c r="B64" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>117</v>
       </c>
       <c r="B65" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -1625,7 +1947,7 @@
         <v>38</v>
       </c>
       <c r="B66" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -1633,20 +1955,23 @@
         <v>131</v>
       </c>
       <c r="B67" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>39</v>
       </c>
+      <c r="B68" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>132</v>
       </c>
       <c r="B69" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -1654,7 +1979,7 @@
         <v>40</v>
       </c>
       <c r="B70" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -1662,25 +1987,31 @@
         <v>133</v>
       </c>
       <c r="B71" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>119</v>
       </c>
+      <c r="B72" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>118</v>
       </c>
+      <c r="B73" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>134</v>
       </c>
       <c r="B74" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -1688,7 +2019,7 @@
         <v>135</v>
       </c>
       <c r="B75" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -1705,96 +2036,114 @@
       <c r="A78" t="s">
         <v>42</v>
       </c>
+      <c r="B78" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B79" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>43</v>
       </c>
+      <c r="B80" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>137</v>
       </c>
       <c r="B81" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>44</v>
       </c>
+      <c r="B82" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>138</v>
       </c>
       <c r="B83" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>45</v>
       </c>
+      <c r="B84" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>139</v>
       </c>
       <c r="B85" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>140</v>
+        <v>312</v>
+      </c>
+      <c r="B86" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B88" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>46</v>
       </c>
+      <c r="B89" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>47</v>
       </c>
       <c r="B90" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B92" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -1802,20 +2151,23 @@
         <v>48</v>
       </c>
       <c r="B93" t="s">
-        <v>262</v>
+        <v>313</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B94" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>146</v>
+        <v>145</v>
+      </c>
+      <c r="B95" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -1825,10 +2177,10 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B97" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -1836,31 +2188,37 @@
         <v>50</v>
       </c>
       <c r="B98" t="s">
-        <v>259</v>
+        <v>301</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>51</v>
       </c>
+      <c r="B100" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B101" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>52</v>
       </c>
+      <c r="B102" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
@@ -1869,10 +2227,10 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B104" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -1882,12 +2240,12 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -1895,15 +2253,15 @@
         <v>54</v>
       </c>
       <c r="B108" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B109" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -1911,17 +2269,20 @@
         <v>55</v>
       </c>
       <c r="B110" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>155</v>
+        <v>154</v>
+      </c>
+      <c r="B112" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -1931,10 +2292,10 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B114" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -1947,20 +2308,20 @@
         <v>58</v>
       </c>
       <c r="B116" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B117" t="s">
-        <v>221</v>
+        <v>278</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -1970,15 +2331,18 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B120" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>160</v>
+        <v>159</v>
+      </c>
+      <c r="B121" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -1988,15 +2352,15 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B123" t="s">
-        <v>221</v>
+        <v>299</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -2006,15 +2370,18 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B126" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>164</v>
+        <v>163</v>
+      </c>
+      <c r="B127" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -2024,15 +2391,18 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B129" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>165</v>
+        <v>164</v>
+      </c>
+      <c r="B130" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -2042,15 +2412,18 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B132" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>167</v>
+        <v>166</v>
+      </c>
+      <c r="B133" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -2060,10 +2433,10 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B135" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -2078,52 +2451,58 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B138" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>67</v>
       </c>
+      <c r="B139" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>68</v>
       </c>
       <c r="B140" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B141" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>69</v>
       </c>
+      <c r="B142" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B143" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B144" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -2133,16 +2512,19 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B146" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>71</v>
       </c>
+      <c r="B147" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
@@ -2151,22 +2533,28 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>173</v>
+        <v>172</v>
+      </c>
+      <c r="B149" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>73</v>
       </c>
+      <c r="B150" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -2176,10 +2564,10 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B154" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -2189,10 +2577,10 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B156" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -2200,23 +2588,23 @@
         <v>76</v>
       </c>
       <c r="B157" t="s">
-        <v>258</v>
+        <v>297</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B158" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B159" t="s">
-        <v>231</v>
+        <v>300</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -2226,10 +2614,10 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B161" t="s">
-        <v>231</v>
+        <v>268</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -2242,12 +2630,15 @@
         <v>181</v>
       </c>
       <c r="B163" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="B164" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -2259,151 +2650,181 @@
       <c r="A166" t="s">
         <v>80</v>
       </c>
+      <c r="B166" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B167" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>81</v>
       </c>
+      <c r="B168" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B169" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B170" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>82</v>
       </c>
+      <c r="B171" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B172" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>83</v>
       </c>
+      <c r="B173" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B174" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B175" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>84</v>
       </c>
+      <c r="B176" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>85</v>
       </c>
       <c r="B177" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B178" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>86</v>
       </c>
+      <c r="B179" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B180" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>88</v>
       </c>
+      <c r="B181" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B182" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>89</v>
       </c>
+      <c r="B184" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B185" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>90</v>
       </c>
+      <c r="B186" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B187" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>195</v>
+        <v>194</v>
+      </c>
+      <c r="B188" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -2415,33 +2836,45 @@
       <c r="A190" t="s">
         <v>122</v>
       </c>
+      <c r="B190" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>121</v>
       </c>
+      <c r="B191" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B192" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>92</v>
       </c>
+      <c r="B193" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>197</v>
+        <v>196</v>
+      </c>
+      <c r="B194" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -2451,27 +2884,42 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>199</v>
+        <v>198</v>
+      </c>
+      <c r="B197" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>94</v>
       </c>
+      <c r="B198" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>200</v>
+        <v>199</v>
+      </c>
+      <c r="B199" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>95</v>
       </c>
+      <c r="B200" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>201</v>
+        <v>200</v>
+      </c>
+      <c r="B201" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
@@ -2481,15 +2929,18 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>203</v>
+        <v>202</v>
+      </c>
+      <c r="B204" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -2499,12 +2950,15 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>205</v>
+        <v>204</v>
+      </c>
+      <c r="B206" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
@@ -2514,10 +2968,10 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B209" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
@@ -2525,15 +2979,15 @@
         <v>99</v>
       </c>
       <c r="B210" t="s">
-        <v>249</v>
+        <v>287</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B211" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
@@ -2541,87 +2995,362 @@
         <v>100</v>
       </c>
       <c r="B212" t="s">
-        <v>249</v>
+        <v>286</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B213" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>235</v>
+        <v>234</v>
+      </c>
+      <c r="B214" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B215" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>239</v>
+        <v>238</v>
+      </c>
+      <c r="B216" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>240</v>
+        <v>239</v>
+      </c>
+      <c r="B217" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B218" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B219" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B221" t="s">
-        <v>249</v>
+        <v>290</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>246</v>
+        <v>244</v>
+      </c>
+      <c r="B222" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>280</v>
+      </c>
+      <c r="B225" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>244</v>
+        <v>281</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>282</v>
+      </c>
+      <c r="B227" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>58</v>
+      </c>
+      <c r="B229" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>288</v>
+      </c>
+      <c r="B230" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C233" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C234" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="C235" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B236" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B237" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B238" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B239" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="B240" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B241" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B242" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="B243" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B244" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="B245" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="B246" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B247" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B248" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="B249" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B250" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="B251" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B252" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B253" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B254" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="B255" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B256" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B257" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="B258" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B259" t="s">
+        <v>324</v>
       </c>
     </row>
   </sheetData>
